--- a/External Data/reports/2020_termination_data.xlsx
+++ b/External Data/reports/2020_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB01D0-6CD9-4A70-85B5-80B17972A8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F223B-578B-4167-B93F-F61DDBD8EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_age" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="2020_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2020_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2020_county" sheetId="10" r:id="rId10"/>
-    <sheet name="2020_procedure_location_wrksht" sheetId="13" r:id="rId11"/>
-    <sheet name="2020_gestation_weeks" sheetId="11" r:id="rId12"/>
+    <sheet name="2020_monthly" sheetId="14" r:id="rId11"/>
+    <sheet name="2020_procedure_location_wrksht" sheetId="13" r:id="rId12"/>
+    <sheet name="2020_gestation_weeks" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
   <si>
     <t>&lt; 16</t>
   </si>
@@ -536,6 +537,114 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;= 21 </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Terminations</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>694 (9.41%)</t>
+  </si>
+  <si>
+    <t>59 (15.36%)</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>587 (7.96%)</t>
+  </si>
+  <si>
+    <t>24 (6.25%)</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>648 (8.79%)</t>
+  </si>
+  <si>
+    <t>37 (9.6%)</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>693 (9.4%)</t>
+  </si>
+  <si>
+    <t>35 (9.11%)</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>711 (9.6%)</t>
+  </si>
+  <si>
+    <t>26 (6.77%)</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>543 (7.4%)</t>
+  </si>
+  <si>
+    <t>21 (5.47%)</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>657 (8.9%)</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>520 (7.05%)</t>
+  </si>
+  <si>
+    <t>23 (5.99%)</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>639 (8.67%)</t>
+  </si>
+  <si>
+    <t>32 (8.33%)</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>605 (8.20%)</t>
+  </si>
+  <si>
+    <t>36 (9.38%)</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>497 (6.74%)</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>578 (7.84%)</t>
+  </si>
+  <si>
+    <t>33 (8.59%)</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1134,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1038,10 +1147,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1404,13 +1511,13 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -1420,106 +1527,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>55</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>0.71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>142</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>1.83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>518</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>6.68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>2367</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>30.52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>2232</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>28.78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>1417</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>18.27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>771</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>9.94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>239</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>3.08</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>0.19</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -1536,9 +1643,9 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1558,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1578,7 +1685,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1598,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1618,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1638,7 +1745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1658,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1678,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1698,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1738,7 +1845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1758,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1778,7 +1885,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -1798,7 +1905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1818,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1838,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1858,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1878,7 +1985,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -1898,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -1918,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1938,7 +2045,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -1958,7 +2065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -1978,7 +2085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -1998,7 +2105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -2018,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2038,7 +2145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2058,7 +2165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -2078,7 +2185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -2098,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2118,7 +2225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2138,7 +2245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -2164,6 +2271,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2783147-6EF4-40C7-8FCD-F2E8F0D0CE91}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B068E4-C0A4-4086-B44C-EFB2ACCC507D}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2171,13 +2436,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="32.7265625" customWidth="1"/>
     <col min="5" max="5" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2185,7 +2450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2222,7 +2487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2242,7 +2507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2262,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2282,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2302,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2313,7 +2578,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2332,7 +2597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B11">
         <f t="shared" ref="B11:C11" si="1">SUM(B3:B10)</f>
         <v>4243</v>
@@ -2342,7 +2607,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2353,7 +2618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2366,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2379,7 +2644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B18">
         <f t="shared" ref="B18:C18" si="2">SUM(B15:B17)</f>
         <v>7668</v>
@@ -2398,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DA0ED3-F4DB-48BE-ABD4-4EF4820C1147}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2406,225 +2671,225 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>1.2893243940175349E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.32233109850438368</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
         <v>389</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>5.0154718927282103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>1646</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>21.222279525528624</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
         <v>1782</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>22.975760701392471</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7">
         <v>1415</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>18.243940175348115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8">
         <v>1047</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>13.49922640536359</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9">
         <v>450</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>5.8019597730789068</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10">
         <v>307</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>3.958225889633832</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11">
         <v>298</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>3.8421866941722538</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12">
         <v>327</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>4.216090768437339</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.12893243940175347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>5.1572975760701398E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>6.4466219700876737E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>6.4466219700876737E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>2.5786487880350699E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>6.4466219700876737E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0.15471892728210418</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>21</v>
       </c>
       <c r="B20">
         <v>26</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>0.33522434244455906</v>
       </c>
     </row>
@@ -2641,12 +2906,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2657,95 +2922,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>3830</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>49.38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>2682</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>34.58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>264</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>23</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>103</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>1.33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>742</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>9.57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9">
         <v>99</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>1.28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" s="2">
         <f t="shared" ref="B10:C10" si="0">SUM(B2:B9)</f>
         <v>7756</v>
@@ -2755,7 +3020,7 @@
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -2771,12 +3036,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2787,44 +3052,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>6814</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>87.85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
         <v>832</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>10.73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
         <v>110</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>1.42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -2840,13 +3105,13 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2857,106 +3122,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2">
         <v>93</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
         <v>603</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>7.77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>2856</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>36.82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>2012</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>25.94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6">
         <v>824</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>10.62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7">
         <v>962</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>12.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8">
         <v>215</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>2.77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
         <v>60</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>131</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>1.69</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="9"/>
     </row>
   </sheetData>
@@ -2969,17 +3234,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2990,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3001,7 +3266,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3012,10 +3277,10 @@
         <v>45.18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="7"/>
     </row>
   </sheetData>
@@ -3032,13 +3297,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="43.81640625" customWidth="1"/>
     <col min="2" max="2" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3048,11 +3313,11 @@
       <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3066,7 +3331,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3080,7 +3345,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3094,8 +3359,8 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
       <c r="B5" t="s">
@@ -3108,7 +3373,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3122,8 +3387,8 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
@@ -3136,8 +3401,8 @@
         <v>25.13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
@@ -3150,7 +3415,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3164,7 +3429,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3178,7 +3443,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3192,7 +3457,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3206,7 +3471,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3220,10 +3485,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C16" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -3239,7 +3504,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
@@ -3247,7 +3512,7 @@
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3261,7 +3526,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3272,7 +3537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3283,7 +3548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="4"/>
     </row>
   </sheetData>
@@ -3299,14 +3564,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" style="10" customWidth="1"/>
     <col min="2" max="3" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
@@ -3316,51 +3581,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="2">
         <v>5258</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="2">
         <v>2429</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>31.32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="10" t="s">
         <v>161</v>
       </c>
       <c r="B4" s="2">
         <v>43</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B5">
         <v>26</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>0.34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
@@ -3377,7 +3642,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
@@ -3388,20 +3653,20 @@
     <col min="7" max="7" width="9.54296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>

--- a/External Data/reports/2020_termination_data.xlsx
+++ b/External Data/reports/2020_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F223B-578B-4167-B93F-F61DDBD8EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEB53E-1198-434E-8CA2-F56A90368DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="821" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_age" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2020_monthly" sheetId="14" r:id="rId11"/>
     <sheet name="2020_procedure_location_wrksht" sheetId="13" r:id="rId12"/>
     <sheet name="2020_gestation_weeks" sheetId="11" r:id="rId13"/>
+    <sheet name="2020_non_res" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="205">
   <si>
     <t>&lt; 16</t>
   </si>
@@ -645,6 +646,24 @@
   </si>
   <si>
     <t>33 (8.59%)</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>abortions</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2783147-6EF4-40C7-8FCD-F2E8F0D0CE91}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2891,6 +2910,77 @@
       </c>
       <c r="C20" s="11">
         <v>0.33522434244455906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0EF5B-1BC9-4AC3-A40A-BEDBE02A90BA}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
